--- a/inputs/backup/SO.xlsx
+++ b/inputs/backup/SO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Number</t>
   </si>
@@ -22,7 +22,7 @@
     <t>00-0000</t>
   </si>
   <si>
-    <t>21-0032</t>
+    <t>21-0001</t>
   </si>
   <si>
     <t>Client</t>
@@ -31,7 +31,7 @@
     <t>none</t>
   </si>
   <si>
-    <t>Alians</t>
+    <t>Almadar</t>
   </si>
   <si>
     <t>Destination</t>
@@ -43,16 +43,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>16.12.2021</t>
-  </si>
-  <si>
-    <t>08.12.2021</t>
+    <t>14.12.2021</t>
+  </si>
+  <si>
+    <t>02.12.2021</t>
   </si>
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>OCC 12</t>
+    <t>1.01 - Mixed paper and board</t>
   </si>
   <si>
     <t>Cntrs</t>
@@ -64,7 +64,7 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>400.00</t>
+    <t>200.00</t>
   </si>
   <si>
     <t>Min</t>
@@ -76,7 +76,7 @@
     <t>Sales price</t>
   </si>
   <si>
-    <t>250.00</t>
+    <t>280.00</t>
   </si>
   <si>
     <t>Currency</t>
@@ -91,13 +91,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>90</t>
+    <t>12</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Extra freetime</t>
+    <t>1</t>
   </si>
   <si>
     <t>Closed</t>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,42 +598,86 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
       </c>
       <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="b">
+      <c r="N5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/inputs/backup/SO.xlsx
+++ b/inputs/backup/SO.xlsx
@@ -14,45 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>Number</t>
   </si>
   <si>
+    <t>22-7789</t>
+  </si>
+  <si>
     <t>00-0000</t>
   </si>
   <si>
-    <t>21-0001</t>
+    <t>22-7571</t>
+  </si>
+  <si>
+    <t>21-6853</t>
+  </si>
+  <si>
+    <t>22-7680</t>
+  </si>
+  <si>
+    <t>22-7703</t>
   </si>
   <si>
     <t>Client</t>
   </si>
   <si>
+    <t>LEIPA</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
-    <t>Almadar</t>
+    <t>AP-CONCEPT</t>
+  </si>
+  <si>
+    <t>Grupasa</t>
+  </si>
+  <si>
+    <t>Papir-Mal</t>
   </si>
   <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>Vostochniy</t>
+    <t>Schrobenhausen</t>
+  </si>
+  <si>
+    <t>Gluckstadt</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>Malin</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>14.12.2021</t>
-  </si>
-  <si>
-    <t>02.12.2021</t>
+    <t>21.01.2022</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10.01.2022</t>
+  </si>
+  <si>
+    <t>03.01.2022</t>
+  </si>
+  <si>
+    <t>14.01.2022</t>
+  </si>
+  <si>
+    <t>13.01.2022</t>
+  </si>
+  <si>
+    <t>20.01.2022</t>
   </si>
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>1.01 - Mixed paper and board</t>
+    <t>3.05 - SWL / White woodfree letters</t>
+  </si>
+  <si>
+    <t>Testliner / Rolls</t>
+  </si>
+  <si>
+    <t>PP/PET</t>
   </si>
   <si>
     <t>Cntrs</t>
@@ -61,46 +112,106 @@
     <t>Tons</t>
   </si>
   <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>200.00</t>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>274.00</t>
   </si>
   <si>
     <t>Min</t>
   </si>
   <si>
-    <t>20.00</t>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>23.30</t>
+  </si>
+  <si>
+    <t>21.08</t>
   </si>
   <si>
     <t>Sales price</t>
   </si>
   <si>
-    <t>280.00</t>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>415.00</t>
+  </si>
+  <si>
+    <t>1005.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
   </si>
   <si>
     <t>Currency</t>
   </si>
   <si>
+    <t>EUR</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
     <t>Cust. payment terms</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>30.0</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>1</t>
+    <t>600082036</t>
+  </si>
+  <si>
+    <t>SWL</t>
+  </si>
+  <si>
+    <t>waiting inland haulage cma / remind 24/01</t>
+  </si>
+  <si>
+    <t>Polycups МС-12Г | Доп соглашение №9 к контракту 25/06 от 25/06/21</t>
+  </si>
+  <si>
+    <t>Tetra МС-12Г | Доп соглашение №9 к контракту 25/06 от 25/06/21</t>
+  </si>
+  <si>
+    <t>SWL ASAP Arrival</t>
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>managereurope</t>
+  </si>
+  <si>
+    <t>importukraine</t>
   </si>
 </sst>
 </file>
@@ -458,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -504,8 +615,11 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -513,43 +627,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -557,128 +674,419 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="N5" t="b">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" t="b">
         <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
